--- a/data/trans_dic/P20B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.07384249898415891</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1382417351419557</v>
+        <v>0.1382417351419558</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.09980616276785725</v>
@@ -708,20 +708,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0</v>
+        <v>0.07665644932329094</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08102706208132188</v>
+        <v>0.080349638066779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07503047579222337</v>
+        <v>0.07888135858939951</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02844811393653848</v>
+        <v>0.02836852238873058</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02487147228573248</v>
+        <v>0.02442375594272562</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08253369074765927</v>
+        <v>0.08096473361976889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04598544497500923</v>
+        <v>0.04539215208443396</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6331568461310522</v>
+        <v>0.6102174282633323</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.583466488130979</v>
+        <v>0.5827844435028493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5797863960957726</v>
+        <v>0.5222171075798744</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1379989348562463</v>
+        <v>0.1595719705870408</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2340404732398005</v>
+        <v>0.239019197718104</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2226588710274604</v>
+        <v>0.2308272195491778</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5855764693863548</v>
+        <v>0.509395294543275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2317347342181535</v>
+        <v>0.2294313493413346</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2980758112741629</v>
+        <v>0.3049190318447335</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2754667566019168</v>
+        <v>0.2734088457892229</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5641634896207596</v>
+        <v>0.4523733928351932</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.1360635267848372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2898357693775143</v>
+        <v>0.2898357693775144</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08007185752801334</v>
@@ -817,7 +817,7 @@
         <v>0.07743160917117844</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0660529416614016</v>
+        <v>0.06605294166140162</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1212390756636086</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1130824645831916</v>
+        <v>0.1114742701789423</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.065999748816887</v>
+        <v>0.06453037786500791</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05896134731381625</v>
+        <v>0.05674948561905642</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02938754796374615</v>
+        <v>0.03657190710634408</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02315975407637829</v>
+        <v>0.02316243442838836</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03006195328333558</v>
+        <v>0.02977642654748086</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06670764525108677</v>
+        <v>0.07184216165393806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0475244860499764</v>
+        <v>0.05030606452921206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03665564479454853</v>
+        <v>0.03841493859572856</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04648144080972023</v>
+        <v>0.04682797231445944</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4393449084110205</v>
+        <v>0.4317873536058134</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3507959277500302</v>
+        <v>0.3629374474908899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4196602891115418</v>
+        <v>0.3927718359152782</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.672773177836745</v>
+        <v>0.6862474845100952</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1582868145808817</v>
+        <v>0.1748851358129009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1226020685959814</v>
+        <v>0.1295862267762078</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1615015514833776</v>
+        <v>0.1686880395331872</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2049731646435485</v>
+        <v>0.2130682104322011</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1975454588675397</v>
+        <v>0.2060227209587062</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1522682164467977</v>
+        <v>0.155063282163696</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1687418425554506</v>
+        <v>0.1823019873363943</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2845270826172309</v>
+        <v>0.2797703574883428</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.4343434773812141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2486238828632692</v>
+        <v>0.2486238828632693</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1844450854755944</v>
@@ -965,7 +965,7 @@
         <v>0.2442518801595966</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2274103660070357</v>
+        <v>0.2274103660070358</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1651665020549471</v>
+        <v>0.1637824818580661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1774882790439364</v>
+        <v>0.1790453716998021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2020956178511928</v>
+        <v>0.2275843495636058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09063109091279828</v>
+        <v>0.0877553814549662</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07529575934640485</v>
+        <v>0.08020606209594393</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1924110906948718</v>
+        <v>0.2062162539909916</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06631434982709523</v>
+        <v>0.06845864360840871</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1172155159495025</v>
+        <v>0.1214753293615969</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1340852074054715</v>
+        <v>0.1474984147694827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2353702990794037</v>
+        <v>0.2261485092981397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1476532117594903</v>
+        <v>0.141894934356894</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1390912754610814</v>
+        <v>0.1379568665156018</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6212520391216704</v>
+        <v>0.617169651785566</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5112259904494278</v>
+        <v>0.5238687025990533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6550622366788686</v>
+        <v>0.6474202427791612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4762736892217763</v>
+        <v>0.4568986082258779</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3263761068148444</v>
+        <v>0.3412716904649769</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.441944550896512</v>
+        <v>0.4662652632591468</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2961611487374156</v>
+        <v>0.2874983177497772</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3405672187208833</v>
+        <v>0.3318468158539312</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3644703458765132</v>
+        <v>0.3745290955093954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4240897469567789</v>
+        <v>0.4318931410769875</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3542158054726742</v>
+        <v>0.349562410787785</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.343260130308168</v>
+        <v>0.3327970684811998</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.4352580034229863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.415940334914318</v>
+        <v>0.4159403349143179</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3810913139655155</v>
@@ -1089,7 +1089,7 @@
         <v>0.4609741576385361</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.44433216539398</v>
+        <v>0.4443321653939798</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.283376795413141</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04576741893973801</v>
+        <v>0.04265199730674174</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2507614735282826</v>
+        <v>0.2679761954499549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2342986553622182</v>
+        <v>0.2299507963781316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2668439371404436</v>
+        <v>0.260005682844684</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2240714204164266</v>
+        <v>0.2225320643390901</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3646179569504812</v>
+        <v>0.3427268224629971</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2867956821094551</v>
+        <v>0.2860562067544364</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3201634015325061</v>
+        <v>0.3108559075363436</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1715261182996654</v>
+        <v>0.1718965365227733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3669584096490727</v>
+        <v>0.3637803676809803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3023184070741429</v>
+        <v>0.3100095171676884</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3257152605383745</v>
+        <v>0.3146564903440936</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3723246514963086</v>
+        <v>0.3730329659777805</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5887006257507272</v>
+        <v>0.6156241961081331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6313338640112912</v>
+        <v>0.6650992447458084</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5803987429895092</v>
+        <v>0.6028171308116198</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5784497367457353</v>
+        <v>0.5717689663087723</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6696668520513976</v>
+        <v>0.6475741663210082</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6642257592053203</v>
+        <v>0.6736788835980337</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5984641085677386</v>
+        <v>0.5766610117523081</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4325716065913998</v>
+        <v>0.4296525811788949</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5824088021821181</v>
+        <v>0.5919034331547839</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5848346060266713</v>
+        <v>0.5971980266148099</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5409891096675681</v>
+        <v>0.5380097553525159</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.4820023406342392</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3570301136306455</v>
+        <v>0.3570301136306454</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4779528994120566</v>
@@ -1225,7 +1225,7 @@
         <v>0.4852535379015227</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3250682423947474</v>
+        <v>0.3250682423947475</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.467296862692604</v>
@@ -1237,7 +1237,7 @@
         <v>0.4834166126408623</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3442669189701014</v>
+        <v>0.3442669189701013</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2472495512752297</v>
+        <v>0.2490586279995584</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1496727243656326</v>
+        <v>0.1810298704602642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2873972392450467</v>
+        <v>0.3015654855947552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2413376996218226</v>
+        <v>0.240780995173923</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2932652916086267</v>
+        <v>0.270755790063826</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.226590620134364</v>
+        <v>0.2518152760472273</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3031436165365504</v>
+        <v>0.2987964062787192</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2079987618543923</v>
+        <v>0.2062629042751356</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3266305563639955</v>
+        <v>0.3143531760463514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2470105302791881</v>
+        <v>0.2398467312524816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3432774681449078</v>
+        <v>0.347389874697176</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2549535694288564</v>
+        <v>0.257142506134293</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.654203012470926</v>
+        <v>0.6971949927936352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5236645136875591</v>
+        <v>0.5275491104680607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6660257334254513</v>
+        <v>0.6548763695872517</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5019688229566117</v>
+        <v>0.4957942688801698</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6951121987777485</v>
+        <v>0.6684712151664985</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6139674747863444</v>
+        <v>0.6144350048607982</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7018511225365093</v>
+        <v>0.7052584461547552</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4605913835661514</v>
+        <v>0.4602442009234042</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.622892720484804</v>
+        <v>0.6109608371171124</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5156932700760113</v>
+        <v>0.4949831818511088</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6191219749132211</v>
+        <v>0.6234046560631386</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4527741475033388</v>
+        <v>0.4453000290604361</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.2385772100392606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4019846217632911</v>
+        <v>0.4019846217632912</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.338865788560797</v>
@@ -1373,7 +1373,7 @@
         <v>0.3329448171152387</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3262288130272372</v>
+        <v>0.3262288130272373</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07690853138002983</v>
+        <v>0.07511767954526818</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1749891999785254</v>
+        <v>0.1843859515400988</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1152539726473475</v>
+        <v>0.1144869741187076</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2841454273817222</v>
+        <v>0.2829225912734256</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1852827164323067</v>
+        <v>0.2092082174812497</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1803293415692481</v>
+        <v>0.1799090303330663</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2517340584065346</v>
+        <v>0.2673057861100546</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1102991872434627</v>
+        <v>0.1092714045617642</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1773178851873065</v>
+        <v>0.185038581311047</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2231785477618241</v>
+        <v>0.2250849975932716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2307732868037128</v>
+        <v>0.22307056908475</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2460502993408699</v>
+        <v>0.2396445752697287</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4307126821901819</v>
+        <v>0.4235609361850713</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5645494341223316</v>
+        <v>0.5506495926094992</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.429978475309126</v>
+        <v>0.4021817695913229</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5575258731151789</v>
+        <v>0.5453242512794031</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5213278477139516</v>
+        <v>0.5220093615013748</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5037739293332608</v>
+        <v>0.4795272806355662</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6298469178130649</v>
+        <v>0.6507035820287435</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3409250336630267</v>
+        <v>0.3515092829495109</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4224262977952857</v>
+        <v>0.429342059027324</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.464138762034376</v>
+        <v>0.4608207957690031</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4555126867182105</v>
+        <v>0.455076849571746</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4307584652448199</v>
+        <v>0.4297529340835504</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.2686691011180385</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.256213576520529</v>
+        <v>0.2562135765205291</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1563683464887173</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04112556805613574</v>
+        <v>0.04180313133301719</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06320671200074809</v>
+        <v>0.05792403414105387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1058094005535248</v>
+        <v>0.1077534201621076</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1052534691033233</v>
+        <v>0.1005603949889812</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06541697307063883</v>
+        <v>0.06413125733993524</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.064654693827955</v>
+        <v>0.07262206363271415</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1268558412187628</v>
+        <v>0.1414711901217058</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1683349311578935</v>
+        <v>0.163415033711042</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06453665063190962</v>
+        <v>0.07606890342995545</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08229949311177409</v>
+        <v>0.08360418936027901</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1592627084167037</v>
+        <v>0.1565639182183763</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1660320996765185</v>
+        <v>0.1640031298568231</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3568804169047515</v>
+        <v>0.3548021956350619</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3909412160897253</v>
+        <v>0.3967532119959645</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4693811230905758</v>
+        <v>0.4623536895289129</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3416929963431413</v>
+        <v>0.3407728626033893</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3213589445679092</v>
+        <v>0.3428595861859705</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2796893939665921</v>
+        <v>0.2872741633550696</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4451727855490003</v>
+        <v>0.4811146508533611</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3609124802725791</v>
+        <v>0.3550455567394876</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.269772022423626</v>
+        <v>0.2715659131705742</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2734257491389639</v>
+        <v>0.26586890719391</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3961107039556043</v>
+        <v>0.3999998144935856</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3135023890819635</v>
+        <v>0.3193128184704705</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2694853046682004</v>
+        <v>0.264145318387112</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1896955173478476</v>
+        <v>0.1892052638867351</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2339195691244831</v>
+        <v>0.2435774812265698</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4047079870962601</v>
+        <v>0.4009326934426656</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2895034083466314</v>
+        <v>0.2903638613774026</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3172102975135616</v>
+        <v>0.3252938182688117</v>
       </c>
     </row>
     <row r="28">
@@ -2007,20 +2007,20 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>926</v>
+        <v>973</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -2029,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4128</v>
+        <v>4050</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2083</v>
+        <v>2056</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2049,38 +2049,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6408</v>
+        <v>6176</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8641</v>
+        <v>8630</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7153</v>
+        <v>6443</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>3912</v>
+        <v>4524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8240</v>
+        <v>8415</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7339</v>
+        <v>7608</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15301</v>
+        <v>13310</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8915</v>
+        <v>8826</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14909</v>
+        <v>15251</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12478</v>
+        <v>12385</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15474</v>
+        <v>12408</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2643</v>
+        <v>2605</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1949</v>
+        <v>1905</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2155</v>
+        <v>2681</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>1974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1824</v>
+        <v>1806</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6450</v>
+        <v>6946</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5453</v>
+        <v>5772</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2711</v>
+        <v>2841</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2786</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10268</v>
+        <v>10091</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10357</v>
+        <v>10715</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5579</v>
+        <v>5222</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11419</v>
+        <v>11648</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11605</v>
+        <v>12822</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10449</v>
+        <v>11044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9797</v>
+        <v>10233</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8806</v>
+        <v>9154</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19100</v>
+        <v>19920</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17472</v>
+        <v>17793</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12480</v>
+        <v>13483</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>17053</v>
+        <v>16768</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2951</v>
+        <v>2926</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6603</v>
+        <v>6661</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4693</v>
+        <v>5285</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2166</v>
+        <v>2097</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2551</v>
+        <v>2717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10755</v>
+        <v>11527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3270</v>
+        <v>3375</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4799</v>
+        <v>4973</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6938</v>
+        <v>7632</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21913</v>
+        <v>21054</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10709</v>
+        <v>10291</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9018</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11098</v>
+        <v>11025</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19019</v>
+        <v>19489</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15211</v>
+        <v>15034</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11383</v>
+        <v>10920</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11057</v>
+        <v>11561</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24703</v>
+        <v>26063</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14602</v>
+        <v>14175</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13942</v>
+        <v>13585</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18858</v>
+        <v>19379</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>39483</v>
+        <v>40209</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25690</v>
+        <v>25352</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22256</v>
+        <v>21578</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1023</v>
+        <v>953</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8263</v>
+        <v>8831</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5251</v>
+        <v>5154</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11343</v>
+        <v>11052</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5794</v>
+        <v>5754</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18553</v>
+        <v>17439</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9053</v>
+        <v>9029</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10410</v>
+        <v>10107</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8268</v>
+        <v>8286</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30765</v>
+        <v>30499</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>16318</v>
+        <v>16733</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>24436</v>
+        <v>23606</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8320</v>
+        <v>8336</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19399</v>
+        <v>20287</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14149</v>
+        <v>14906</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24672</v>
+        <v>25625</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14956</v>
+        <v>14784</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>34075</v>
+        <v>32951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20966</v>
+        <v>21265</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19459</v>
+        <v>18750</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20851</v>
+        <v>20710</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48828</v>
+        <v>49624</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>31568</v>
+        <v>32235</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>40587</v>
+        <v>40363</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4425</v>
+        <v>4457</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4143</v>
+        <v>5011</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9422</v>
+        <v>9887</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12058</v>
+        <v>12030</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7235</v>
+        <v>6680</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6671</v>
+        <v>7413</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7652</v>
+        <v>7542</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6909</v>
+        <v>6851</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13904</v>
+        <v>13382</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14109</v>
+        <v>13700</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>19919</v>
+        <v>20157</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>21207</v>
+        <v>21389</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11708</v>
+        <v>12478</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14495</v>
+        <v>14603</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21835</v>
+        <v>21469</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25080</v>
+        <v>24772</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17150</v>
+        <v>16493</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18075</v>
+        <v>18089</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>17715</v>
+        <v>17801</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15299</v>
+        <v>15287</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>26516</v>
+        <v>26008</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>29456</v>
+        <v>28273</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>35925</v>
+        <v>36173</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>37662</v>
+        <v>37040</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1759</v>
+        <v>1718</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5148</v>
+        <v>5425</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4223</v>
+        <v>4195</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10755</v>
+        <v>10708</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5447</v>
+        <v>6151</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6055</v>
+        <v>6040</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7358</v>
+        <v>7813</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2827</v>
+        <v>2801</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9268</v>
+        <v>9672</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>14059</v>
+        <v>14179</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>15201</v>
+        <v>14694</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>15619</v>
+        <v>15212</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9850</v>
+        <v>9687</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16609</v>
+        <v>16200</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15755</v>
+        <v>14736</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21102</v>
+        <v>20640</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15327</v>
+        <v>15347</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>16914</v>
+        <v>16100</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>18410</v>
+        <v>19019</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8738</v>
+        <v>9009</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>22080</v>
+        <v>22441</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>29238</v>
+        <v>29029</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>30005</v>
+        <v>29976</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>27344</v>
+        <v>27280</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2287</v>
+        <v>2096</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2305</v>
+        <v>2348</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3440</v>
+        <v>3287</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2152</v>
+        <v>2110</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2865</v>
+        <v>3218</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5146</v>
+        <v>5739</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>7420</v>
+        <v>7203</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3382</v>
+        <v>3987</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6624</v>
+        <v>6729</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>9930</v>
+        <v>9762</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>12745</v>
+        <v>12589</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6963</v>
+        <v>6923</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14143</v>
+        <v>14353</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10226</v>
+        <v>10073</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>11168</v>
+        <v>11137</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10573</v>
+        <v>11280</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12392</v>
+        <v>12729</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>18058</v>
+        <v>19516</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>15908</v>
+        <v>15650</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>14139</v>
+        <v>14233</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>22007</v>
+        <v>21398</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>24698</v>
+        <v>24941</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>24065</v>
+        <v>24511</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>55292</v>
+        <v>54197</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>46564</v>
+        <v>46444</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>105415</v>
+        <v>109767</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>83037</v>
+        <v>82263</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>71064</v>
+        <v>71275</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>142949</v>
+        <v>146592</v>
       </c>
     </row>
     <row r="36">
